--- a/training/output/CNN/P/P0_P1.xlsx
+++ b/training/output/CNN/P/P0_P1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8497807017543859</v>
+        <v>0.5308333333333333</v>
       </c>
       <c r="B2" t="n">
-        <v>1.719941927675615</v>
+        <v>1.696212351322174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9692982456140351</v>
+        <v>0.6483333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>1.492042547778079</v>
+        <v>1.54173082113266</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9572368421052632</v>
+        <v>0.6983333333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>1.480098165963825</v>
+        <v>1.495559185743332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9714912280701754</v>
+        <v>0.7625</v>
       </c>
       <c r="B5" t="n">
-        <v>1.436286344862821</v>
+        <v>1.431501865386963</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.7241666666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>1.423610461385627</v>
+        <v>1.388587176799774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.7741666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>1.413819566107633</v>
+        <v>1.333132654428482</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9780701754385965</v>
+        <v>0.7891666666666666</v>
       </c>
       <c r="B8" t="n">
-        <v>1.442244517175775</v>
+        <v>1.359240710735321</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.79</v>
       </c>
       <c r="B9" t="n">
-        <v>1.423538360679359</v>
+        <v>1.278815060853958</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>1.400378923667105</v>
+        <v>1.242555797100067</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.8325</v>
       </c>
       <c r="B11" t="n">
-        <v>1.419537981351217</v>
+        <v>1.224055886268616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>1.409001820965817</v>
+        <v>1.152263760566711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.8908333333333334</v>
       </c>
       <c r="B13" t="n">
-        <v>1.434797366460164</v>
+        <v>1.122331082820892</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.8858333333333333</v>
       </c>
       <c r="B14" t="n">
-        <v>1.424439246194404</v>
+        <v>1.145269811153412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B15" t="n">
-        <v>1.398759333710921</v>
+        <v>1.133550137281418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9216666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>1.409516577135053</v>
+        <v>1.059733062982559</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9175</v>
       </c>
       <c r="B17" t="n">
-        <v>1.397742102020665</v>
+        <v>1.058180898427963</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9325000000000001</v>
       </c>
       <c r="B18" t="n">
-        <v>1.399166402063872</v>
+        <v>1.023758128285408</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.9191666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>1.408452399990015</v>
+        <v>1.023305118083954</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9158333333333333</v>
       </c>
       <c r="B20" t="n">
-        <v>1.477647421652811</v>
+        <v>0.9948729276657104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9258333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>1.438990180952507</v>
+        <v>0.9837189167737961</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9275</v>
       </c>
       <c r="B22" t="n">
-        <v>1.40271958970187</v>
+        <v>1.031804859638214</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="B23" t="n">
-        <v>1.393540459766722</v>
+        <v>0.990618497133255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9266666666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>1.395807157483017</v>
+        <v>0.9764822423458099</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9450000000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>1.404120618836922</v>
+        <v>0.9638690501451492</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9241666666666666</v>
       </c>
       <c r="B26" t="n">
-        <v>1.396805736056545</v>
+        <v>0.9566917270421982</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9424999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1.39339836647636</v>
+        <v>0.9120681434869766</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B28" t="n">
-        <v>1.397582591625682</v>
+        <v>0.9314812570810318</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>1.396782276923196</v>
+        <v>0.9142291694879532</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9341666666666667</v>
       </c>
       <c r="B30" t="n">
-        <v>1.395809006272701</v>
+        <v>0.9158240109682083</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9608333333333334</v>
       </c>
       <c r="B31" t="n">
-        <v>1.394316646090725</v>
+        <v>0.842919796705246</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9450000000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>1.39895877085234</v>
+        <v>0.8984222710132599</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9241666666666666</v>
       </c>
       <c r="B33" t="n">
-        <v>1.40698388375734</v>
+        <v>0.9285183995962143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>1.404320009967737</v>
+        <v>0.8471643030643463</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9341666666666666</v>
       </c>
       <c r="B35" t="n">
-        <v>1.414742883883024</v>
+        <v>0.8724371492862701</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9802631578947368</v>
+        <v>0.9508333333333334</v>
       </c>
       <c r="B36" t="n">
-        <v>1.401252596001876</v>
+        <v>0.8531185984611511</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>1.39761879987884</v>
+        <v>0.8213214129209518</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.95</v>
       </c>
       <c r="B38" t="n">
-        <v>1.395675096595496</v>
+        <v>0.7975737005472183</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9475</v>
       </c>
       <c r="B39" t="n">
-        <v>1.394346498606498</v>
+        <v>0.8213526010513306</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9183333333333333</v>
       </c>
       <c r="B40" t="n">
-        <v>1.39129964928878</v>
+        <v>0.876506507396698</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9508333333333334</v>
       </c>
       <c r="B41" t="n">
-        <v>1.389840025650827</v>
+        <v>0.8386076390743256</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B42" t="n">
-        <v>1.389768573275784</v>
+        <v>0.8250490576028824</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="B43" t="n">
-        <v>1.390411483614068</v>
+        <v>0.7901143431663513</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1.391673192643283</v>
+        <v>0.7851749211549759</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9316666666666666</v>
       </c>
       <c r="B45" t="n">
-        <v>1.391073433976424</v>
+        <v>0.8223594129085541</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9524999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1.393829584121704</v>
+        <v>0.8153251558542252</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9708333333333334</v>
       </c>
       <c r="B47" t="n">
-        <v>1.405060947987071</v>
+        <v>0.7809306085109711</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9574999999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>1.39009053665295</v>
+        <v>0.778004989027977</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.993421052631579</v>
+        <v>0.95</v>
       </c>
       <c r="B49" t="n">
-        <v>1.403087885756242</v>
+        <v>0.8159272819757462</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.9491666666666666</v>
       </c>
       <c r="B50" t="n">
-        <v>1.390850525153311</v>
+        <v>0.7631347328424454</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9724999999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>1.39103719226101</v>
+        <v>0.7858922183513641</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="B52" t="n">
-        <v>1.396748722645274</v>
+        <v>0.7821024209260941</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9616228070175439</v>
+        <v>0.9458333333333333</v>
       </c>
       <c r="B53" t="n">
-        <v>1.397012363400376</v>
+        <v>0.8230427801609039</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9641666666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>1.413901793329339</v>
+        <v>0.813460648059845</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9425</v>
       </c>
       <c r="B55" t="n">
-        <v>1.409863827521341</v>
+        <v>0.7806956321001053</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B56" t="n">
-        <v>1.402465498238279</v>
+        <v>0.7855275124311447</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="B57" t="n">
-        <v>1.401008361264279</v>
+        <v>0.7586538195610046</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9658333333333333</v>
       </c>
       <c r="B58" t="n">
-        <v>1.392900799450121</v>
+        <v>0.7505878210067749</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9658333333333333</v>
       </c>
       <c r="B59" t="n">
-        <v>1.391014816468222</v>
+        <v>0.7434002161026001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9433333333333334</v>
       </c>
       <c r="B60" t="n">
-        <v>1.445798648031134</v>
+        <v>0.7588025033473969</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.96</v>
       </c>
       <c r="B61" t="n">
-        <v>1.403067252092194</v>
+        <v>0.743757501244545</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.955</v>
       </c>
       <c r="B62" t="n">
-        <v>1.394768420018648</v>
+        <v>0.7403578907251358</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9780701754385965</v>
+        <v>0.9616666666666666</v>
       </c>
       <c r="B63" t="n">
-        <v>1.400781733947888</v>
+        <v>0.7372255772352219</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B64" t="n">
-        <v>1.391958429102312</v>
+        <v>0.747874915599823</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9591666666666666</v>
       </c>
       <c r="B65" t="n">
-        <v>1.397843691340664</v>
+        <v>0.7575947940349579</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9525</v>
       </c>
       <c r="B66" t="n">
-        <v>1.417973926192836</v>
+        <v>0.7397598326206207</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9591666666666666</v>
       </c>
       <c r="B67" t="n">
-        <v>1.393781961056224</v>
+        <v>0.7489582151174545</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B68" t="n">
-        <v>1.390105749431409</v>
+        <v>0.7422068566083908</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.993421052631579</v>
+        <v>0.955</v>
       </c>
       <c r="B69" t="n">
-        <v>1.38959078621446</v>
+        <v>0.7397845387458801</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.993421052631579</v>
+        <v>0.955</v>
       </c>
       <c r="B70" t="n">
-        <v>1.389382770186976</v>
+        <v>0.7460793703794479</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.9641666666666666</v>
       </c>
       <c r="B71" t="n">
-        <v>1.426402422419766</v>
+        <v>0.7375325262546539</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9641666666666666</v>
       </c>
       <c r="B72" t="n">
-        <v>1.41003676255544</v>
+        <v>0.7360872030258179</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9641666666666666</v>
       </c>
       <c r="B73" t="n">
-        <v>1.432973759216175</v>
+        <v>0.7342709302902222</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9516666666666665</v>
       </c>
       <c r="B74" t="n">
-        <v>1.403969528382285</v>
+        <v>0.7507486045360565</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9033333333333333</v>
       </c>
       <c r="B75" t="n">
-        <v>1.403283863736872</v>
+        <v>0.8140555024147034</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="B76" t="n">
-        <v>1.391180628224423</v>
+        <v>0.7462397366762161</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9633333333333334</v>
       </c>
       <c r="B77" t="n">
-        <v>1.390339617143598</v>
+        <v>0.7458380460739136</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9516666666666665</v>
       </c>
       <c r="B78" t="n">
-        <v>1.395196766184087</v>
+        <v>0.7588055431842804</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9283333333333333</v>
       </c>
       <c r="B79" t="n">
-        <v>1.39192335229171</v>
+        <v>0.7811103016138077</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B80" t="n">
-        <v>1.38984667627435</v>
+        <v>0.7504983842372894</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9525</v>
       </c>
       <c r="B81" t="n">
-        <v>1.432912318330062</v>
+        <v>0.7331077456474304</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9525</v>
       </c>
       <c r="B82" t="n">
-        <v>1.406770300446895</v>
+        <v>0.7270154356956482</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9574999999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>1.392564949236418</v>
+        <v>0.7313436418771744</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9574999999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>1.419199659113298</v>
+        <v>0.7473811358213425</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9625</v>
       </c>
       <c r="B85" t="n">
-        <v>1.391654491424561</v>
+        <v>0.7439368814229965</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.955</v>
       </c>
       <c r="B86" t="n">
-        <v>1.392751009840714</v>
+        <v>0.7441861778497696</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.965</v>
       </c>
       <c r="B87" t="n">
-        <v>1.392172508072435</v>
+        <v>0.7339302599430084</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9591666666666666</v>
       </c>
       <c r="B88" t="n">
-        <v>1.438910965333905</v>
+        <v>0.7335163652896881</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9641666666666666</v>
       </c>
       <c r="B89" t="n">
-        <v>1.391886794776247</v>
+        <v>0.7216854393482208</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9641666666666666</v>
       </c>
       <c r="B90" t="n">
-        <v>1.406262719840334</v>
+        <v>0.7297016084194183</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0.955</v>
       </c>
       <c r="B91" t="n">
-        <v>1.399277555315118</v>
+        <v>0.7283079326152802</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.993421052631579</v>
+        <v>0.955</v>
       </c>
       <c r="B92" t="n">
-        <v>1.388861691742613</v>
+        <v>0.7321693003177643</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9574999999999999</v>
       </c>
       <c r="B93" t="n">
-        <v>1.389672626528824</v>
+        <v>0.7194938808679581</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9574999999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>1.388473050636158</v>
+        <v>0.7287911027669907</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9616666666666666</v>
       </c>
       <c r="B95" t="n">
-        <v>1.421520285439073</v>
+        <v>0.7264242470264435</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9769736842105263</v>
+        <v>0.9625</v>
       </c>
       <c r="B96" t="n">
-        <v>1.40021960986288</v>
+        <v>0.7232034355401993</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9525</v>
       </c>
       <c r="B97" t="n">
-        <v>1.406362023269921</v>
+        <v>0.7278134226799011</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9525</v>
       </c>
       <c r="B98" t="n">
-        <v>1.420910061451427</v>
+        <v>0.7332566231489182</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.9574999999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>1.419669877018845</v>
+        <v>0.7217549085617065</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9574999999999999</v>
       </c>
       <c r="B100" t="n">
-        <v>1.417097014293336</v>
+        <v>0.7213541120290756</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.9574999999999999</v>
       </c>
       <c r="B101" t="n">
-        <v>1.405748691475182</v>
+        <v>0.7272685319185257</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7207849770784378</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7224383503198624</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7226005345582962</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7231812924146652</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9574999999999999</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7174016833305359</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7218486368656158</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7197417020797729</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7196378409862518</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7292459309101105</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7229814827442169</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7285512238740921</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7259180396795273</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9574999999999999</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7188112735748291</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9474999999999999</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.724846825003624</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.723676323890686</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7342322170734406</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7208853960037231</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7187654972076416</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.731872171163559</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7204551696777344</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.722406268119812</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7193001508712769</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7183355987071991</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7230838239192963</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7274424731731415</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7192302048206329</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7206500619649887</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7236278355121613</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7183716595172882</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7181861102581024</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7149775326251984</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7156256586313248</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7246726006269455</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7211458086967468</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7187469750642776</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7286575436592102</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7239082902669907</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7165630310773849</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7243778258562088</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7259434014558792</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7151724547147751</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7192351967096329</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7252230942249298</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7153404057025909</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7191852629184723</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7253018617630005</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7252157926559448</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7321787029504776</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7271725535392761</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7249960601329803</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7195019870996475</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7194275557994843</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7349693179130554</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7120121717453003</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7173710912466049</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7198405116796494</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7190186977386475</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7122718244791031</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7330302894115448</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.713859960436821</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7164930701255798</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.718597412109375</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7150481194257736</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7146325558423996</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7143241167068481</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7138833403587341</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7186189889907837</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7303327471017838</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7174112200737</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7280141264200211</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7146597355604172</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7309403866529465</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7232674360275269</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7127873152494431</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7132358402013779</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7255659401416779</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7242478132247925</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7166296541690826</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7164617925882339</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.712238535284996</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9641666666666666</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7193528115749359</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7200147956609726</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7236113846302032</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7171858549118042</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7154974639415741</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7176644504070282</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7209980189800262</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7234787493944168</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7197169810533524</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7129673808813095</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7230914384126663</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7171520739793777</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.716069832444191</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7192521840333939</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7149111330509186</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7262419462203979</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7439465075731277</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7218307554721832</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7195645123720169</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7146755903959274</v>
       </c>
     </row>
   </sheetData>
